--- a/docs/Plantillas/Plantilla_Rpto_CuotaAdmin_Ciudades.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_CuotaAdmin_Ciudades.xlsx
@@ -106,22 +106,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:I35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,22 +438,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -465,239 +465,239 @@
       <c r="I6" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="11"/>
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F37" s="5"/>
@@ -761,6 +761,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H29:I29"/>
@@ -777,78 +849,6 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
